--- a/oee_data.xlsx
+++ b/oee_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OEE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69715F2B-F49F-4530-A663-0C6E8D15516F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86DD57FE-6327-4545-90EC-C9D512F0A13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2443" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2582" uniqueCount="230">
   <si>
     <t>Tanggal</t>
   </si>
@@ -742,6 +742,30 @@
   <si>
     <t>CF Spreadable 1 KG</t>
   </si>
+  <si>
+    <t>W39</t>
+  </si>
+  <si>
+    <t>Change item</t>
+  </si>
+  <si>
+    <t>cream cheese 1 kg polos</t>
+  </si>
+  <si>
+    <t>cb  mentari  2 kg   bag</t>
+  </si>
+  <si>
+    <t>steam drop</t>
+  </si>
+  <si>
+    <t>listrik mati</t>
+  </si>
+  <si>
+    <t>gardu travo</t>
+  </si>
+  <si>
+    <t>kabel short</t>
+  </si>
 </sst>
 </file>
 
@@ -1055,6 +1079,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1095,7 +1120,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Comma" xfId="7" builtinId="3"/>
@@ -1422,11 +1446,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AH226"/>
+  <dimension ref="A1:AH240"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J216" sqref="J216"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB241" sqref="AB241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1438,119 +1462,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="45" t="s">
+      <c r="C1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="F1" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="45" t="s">
+      <c r="F1" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="46" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="50" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="45" t="s">
+      <c r="L1" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="45" t="s">
+      <c r="Q1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="R1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="43" t="s">
+      <c r="V1" s="44" t="s">
         <v>211</v>
       </c>
-      <c r="W1" s="43" t="s">
+      <c r="W1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="43" t="s">
+      <c r="X1" s="44" t="s">
         <v>213</v>
       </c>
-      <c r="Y1" s="43" t="s">
+      <c r="Y1" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" s="43" t="s">
+      <c r="Z1" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="AA1" s="43" t="s">
+      <c r="AA1" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="AB1" s="43" t="s">
+      <c r="AB1" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="AC1" s="43" t="s">
+      <c r="AC1" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="AD1" s="41" t="s">
+      <c r="AD1" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AE1" s="41" t="s">
+      <c r="AE1" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="AF1" s="41" t="s">
+      <c r="AF1" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="AG1" s="41" t="s">
+      <c r="AG1" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="AH1" s="41" t="s">
+      <c r="AH1" s="42" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
       <c r="J2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="46"/>
+      <c r="K2" s="47"/>
       <c r="L2" s="3" t="s">
         <v>29</v>
       </c>
@@ -1560,26 +1584,26 @@
       <c r="N2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="44"/>
-      <c r="AB2" s="44"/>
-      <c r="AC2" s="44"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="42"/>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="42"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45"/>
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="43"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="43"/>
     </row>
     <row r="3" spans="1:34" s="1" customFormat="1" ht="12.75" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:34" s="1" customFormat="1" ht="12" x14ac:dyDescent="0.2"/>
@@ -1645,54 +1669,54 @@
         <v>0</v>
       </c>
       <c r="T7" s="1">
-        <f t="shared" ref="T7:T8" si="2">E7-S7</f>
+        <f>E7-S7</f>
         <v>1440</v>
       </c>
       <c r="U7" s="1">
-        <f t="shared" ref="U7:U8" si="3">O7+P7</f>
+        <f t="shared" ref="U7:U8" si="2">O7+P7</f>
         <v>0</v>
       </c>
       <c r="V7" s="12">
-        <f t="shared" ref="V7:V8" si="4">(G7*E7)/F7</f>
+        <f t="shared" ref="V7:V8" si="3">(G7*E7)/F7</f>
         <v>1312.9142857142858</v>
       </c>
       <c r="W7" s="11">
-        <f t="shared" ref="W7:W8" si="5">Q7</f>
+        <f t="shared" ref="W7:W8" si="4">Q7</f>
         <v>1.375</v>
       </c>
       <c r="X7" s="11">
-        <f t="shared" ref="X7:X8" si="6">V7-W7</f>
+        <f>V7-W7</f>
         <v>1311.5392857142858</v>
       </c>
       <c r="Y7" s="4">
-        <f t="shared" ref="Y7:Y8" si="7">T7/E7</f>
+        <f>T7/E7</f>
         <v>1</v>
       </c>
       <c r="Z7" s="5">
-        <f t="shared" ref="Z7:Z8" si="8">X7/E7</f>
+        <f t="shared" ref="Z7:Z8" si="5">X7/E7</f>
         <v>0.91079117063492077</v>
       </c>
       <c r="AA7" s="5">
-        <f t="shared" ref="AA7:AA8" si="9">X7/V7</f>
+        <f t="shared" ref="AA7:AA8" si="6">X7/V7</f>
         <v>0.99895271152506959</v>
       </c>
       <c r="AB7" s="6">
-        <f t="shared" ref="AB7:AB8" si="10">Y7*Z7*AA7</f>
+        <f t="shared" ref="AB7:AB8" si="7">Y7*Z7*AA7</f>
         <v>0.90983730953884645</v>
       </c>
       <c r="AC7" s="10">
         <v>0.85</v>
       </c>
       <c r="AE7" s="7">
-        <f t="shared" ref="AE7:AE8" si="11">F7</f>
+        <f t="shared" ref="AE7:AE8" si="8">F7</f>
         <v>6300</v>
       </c>
       <c r="AF7" s="7">
-        <f t="shared" ref="AF7:AF8" si="12">G7</f>
+        <f t="shared" ref="AF7:AF8" si="9">G7</f>
         <v>5744</v>
       </c>
       <c r="AG7" s="8">
-        <f t="shared" ref="AG7:AG8" si="13">AF7/AE7</f>
+        <f t="shared" ref="AG7:AG8" si="10">AF7/AE7</f>
         <v>0.91174603174603175</v>
       </c>
     </row>
@@ -1727,54 +1751,54 @@
         <v>0</v>
       </c>
       <c r="T8" s="1">
+        <f t="shared" ref="T7:T8" si="11">E8-S8</f>
+        <v>1440</v>
+      </c>
+      <c r="U8" s="1">
         <f t="shared" si="2"/>
-        <v>1440</v>
-      </c>
-      <c r="U8" s="1">
+        <v>0</v>
+      </c>
+      <c r="V8" s="12">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="12">
+        <v>1277.0285714285715</v>
+      </c>
+      <c r="W8" s="11">
         <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="11">
+        <f t="shared" ref="X7:X8" si="12">V8-W8</f>
         <v>1277.0285714285715</v>
       </c>
-      <c r="W8" s="11">
+      <c r="Y8" s="4">
+        <f t="shared" ref="Y7:Y8" si="13">T8/E8</f>
+        <v>1</v>
+      </c>
+      <c r="Z8" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X8" s="11">
+        <v>0.88682539682539685</v>
+      </c>
+      <c r="AA8" s="5">
         <f t="shared" si="6"/>
-        <v>1277.0285714285715</v>
-      </c>
-      <c r="Y8" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="6">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="Z8" s="5">
-        <f t="shared" si="8"/>
-        <v>0.88682539682539685</v>
-      </c>
-      <c r="AA8" s="5">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AB8" s="6">
-        <f t="shared" si="10"/>
         <v>0.88682539682539685</v>
       </c>
       <c r="AC8" s="10">
         <v>0.85</v>
       </c>
       <c r="AE8" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="8"/>
         <v>6300</v>
       </c>
       <c r="AF8" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="9"/>
         <v>5587</v>
       </c>
       <c r="AG8" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="10"/>
         <v>0.88682539682539685</v>
       </c>
     </row>
@@ -2059,7 +2083,7 @@
         <v>60</v>
       </c>
       <c r="Q12" s="11">
-        <f t="shared" si="28"/>
+        <f>H12/8</f>
         <v>32.5</v>
       </c>
       <c r="S12" s="1">
@@ -2148,7 +2172,7 @@
         <v>120</v>
       </c>
       <c r="S13" s="1">
-        <f t="shared" si="40"/>
+        <f>SUM(I13:N13)+R13</f>
         <v>120</v>
       </c>
       <c r="T13" s="1">
@@ -2239,7 +2263,7 @@
         <v>120</v>
       </c>
       <c r="S14" s="1">
-        <f t="shared" si="40"/>
+        <f>SUM(I14:N14)+R14</f>
         <v>180</v>
       </c>
       <c r="T14" s="1">
@@ -15362,43 +15386,43 @@
         <v>65.625</v>
       </c>
       <c r="S167" s="1">
-        <f t="shared" ref="S167:S226" si="342">SUM(I167:N167)+R167</f>
+        <f t="shared" ref="S167:S230" si="342">SUM(I167:N167)+R167</f>
         <v>0</v>
       </c>
       <c r="T167" s="1">
-        <f t="shared" ref="T167:T226" si="343">E167-S167</f>
+        <f t="shared" ref="T167:T230" si="343">E167-S167</f>
         <v>1440</v>
       </c>
       <c r="U167" s="1">
-        <f t="shared" ref="U167:U226" si="344">O167+P167</f>
+        <f t="shared" ref="U167:U230" si="344">O167+P167</f>
         <v>0</v>
       </c>
       <c r="V167" s="11">
-        <f t="shared" ref="V167:V226" si="345">(G167*E167)/F167</f>
+        <f t="shared" ref="V167:V230" si="345">(G167*E167)/F167</f>
         <v>1347.9183673469388</v>
       </c>
       <c r="W167" s="11">
-        <f t="shared" ref="W167:W226" si="346">Q167</f>
+        <f t="shared" ref="W167:W230" si="346">Q167</f>
         <v>65.625</v>
       </c>
       <c r="X167" s="11">
-        <f t="shared" ref="X167:X226" si="347">V167-W167</f>
+        <f t="shared" ref="X167:X230" si="347">V167-W167</f>
         <v>1282.2933673469388</v>
       </c>
       <c r="Y167" s="4">
-        <f t="shared" ref="Y167:Y226" si="348">T167/E167</f>
+        <f t="shared" ref="Y167:Y230" si="348">T167/E167</f>
         <v>1</v>
       </c>
       <c r="Z167" s="13">
-        <f t="shared" ref="Z167:Z226" si="349">X167/E167</f>
+        <f t="shared" ref="Z167:Z230" si="349">X167/E167</f>
         <v>0.89048150510204083</v>
       </c>
       <c r="AA167" s="13">
-        <f t="shared" ref="AA167:AA226" si="350">X167/V167</f>
+        <f t="shared" ref="AA167:AA230" si="350">X167/V167</f>
         <v>0.95131381722383723</v>
       </c>
       <c r="AB167" s="6">
-        <f t="shared" ref="AB167:AB226" si="351">Y167*Z167*AA167</f>
+        <f t="shared" ref="AB167:AB230" si="351">Y167*Z167*AA167</f>
         <v>0.8471273597858503</v>
       </c>
       <c r="AC167" s="10">
@@ -16302,7 +16326,7 @@
         <v>60</v>
       </c>
       <c r="Q178" s="11">
-        <f t="shared" ref="Q178:Q226" si="355">H178/8</f>
+        <f t="shared" ref="Q178:Q238" si="355">H178/8</f>
         <v>7.5</v>
       </c>
       <c r="S178" s="1">
@@ -20149,7 +20173,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="225" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>192</v>
       </c>
@@ -20225,7 +20249,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="226" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>192</v>
       </c>
@@ -20300,6 +20324,1020 @@
       <c r="AC226" s="10">
         <v>0.85</v>
       </c>
+    </row>
+    <row r="227" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>192</v>
+      </c>
+      <c r="B227" t="s">
+        <v>222</v>
+      </c>
+      <c r="C227" s="15">
+        <v>45922</v>
+      </c>
+      <c r="D227" s="1">
+        <v>1</v>
+      </c>
+      <c r="E227" s="1">
+        <v>1440</v>
+      </c>
+      <c r="F227" s="1">
+        <v>29400</v>
+      </c>
+      <c r="G227" s="1">
+        <v>25600</v>
+      </c>
+      <c r="H227" s="1">
+        <v>1075</v>
+      </c>
+      <c r="Q227" s="11">
+        <f t="shared" si="355"/>
+        <v>134.375</v>
+      </c>
+      <c r="S227" s="1">
+        <f t="shared" si="342"/>
+        <v>0</v>
+      </c>
+      <c r="T227" s="1">
+        <f t="shared" si="343"/>
+        <v>1440</v>
+      </c>
+      <c r="U227" s="1">
+        <f t="shared" si="344"/>
+        <v>0</v>
+      </c>
+      <c r="V227" s="11">
+        <f t="shared" si="345"/>
+        <v>1253.8775510204082</v>
+      </c>
+      <c r="W227" s="11">
+        <f t="shared" si="346"/>
+        <v>134.375</v>
+      </c>
+      <c r="X227" s="11">
+        <f t="shared" si="347"/>
+        <v>1119.5025510204082</v>
+      </c>
+      <c r="Y227" s="4">
+        <f t="shared" si="348"/>
+        <v>1</v>
+      </c>
+      <c r="Z227" s="13">
+        <f t="shared" si="349"/>
+        <v>0.77743232709750565</v>
+      </c>
+      <c r="AA227" s="13">
+        <f t="shared" si="350"/>
+        <v>0.89283243815104163</v>
+      </c>
+      <c r="AB227" s="6">
+        <f t="shared" si="351"/>
+        <v>0.69411680009990406</v>
+      </c>
+      <c r="AC227" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="AE227" s="1">
+        <f t="shared" ref="AE227:AF238" si="356">F227</f>
+        <v>29400</v>
+      </c>
+      <c r="AF227" s="1">
+        <f t="shared" si="356"/>
+        <v>25600</v>
+      </c>
+      <c r="AG227" s="9">
+        <f t="shared" ref="AG227:AG238" si="357">AF227/AE227</f>
+        <v>0.87074829931972786</v>
+      </c>
+    </row>
+    <row r="228" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>192</v>
+      </c>
+      <c r="B228" t="s">
+        <v>222</v>
+      </c>
+      <c r="C228" s="15">
+        <v>45922</v>
+      </c>
+      <c r="D228" t="s">
+        <v>40</v>
+      </c>
+      <c r="E228" s="1">
+        <v>1440</v>
+      </c>
+      <c r="F228" s="1">
+        <v>29400</v>
+      </c>
+      <c r="G228" s="1">
+        <v>25600</v>
+      </c>
+      <c r="H228" s="1">
+        <v>1875</v>
+      </c>
+      <c r="Q228" s="11">
+        <f t="shared" si="355"/>
+        <v>234.375</v>
+      </c>
+      <c r="S228" s="1">
+        <f t="shared" si="342"/>
+        <v>0</v>
+      </c>
+      <c r="T228" s="1">
+        <f t="shared" si="343"/>
+        <v>1440</v>
+      </c>
+      <c r="U228" s="1">
+        <f t="shared" si="344"/>
+        <v>0</v>
+      </c>
+      <c r="V228" s="11">
+        <f t="shared" si="345"/>
+        <v>1253.8775510204082</v>
+      </c>
+      <c r="W228" s="11">
+        <f t="shared" si="346"/>
+        <v>234.375</v>
+      </c>
+      <c r="X228" s="11">
+        <f t="shared" si="347"/>
+        <v>1019.5025510204082</v>
+      </c>
+      <c r="Y228" s="4">
+        <f t="shared" si="348"/>
+        <v>1</v>
+      </c>
+      <c r="Z228" s="13">
+        <f t="shared" si="349"/>
+        <v>0.70798788265306123</v>
+      </c>
+      <c r="AA228" s="13">
+        <f t="shared" si="350"/>
+        <v>0.813079833984375</v>
+      </c>
+      <c r="AB228" s="6">
+        <f t="shared" si="351"/>
+        <v>0.57565067009050019</v>
+      </c>
+      <c r="AC228" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="AE228" s="1">
+        <f t="shared" si="356"/>
+        <v>29400</v>
+      </c>
+      <c r="AF228" s="1">
+        <f t="shared" si="356"/>
+        <v>25600</v>
+      </c>
+      <c r="AG228" s="9">
+        <f t="shared" si="357"/>
+        <v>0.87074829931972786</v>
+      </c>
+    </row>
+    <row r="229" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>192</v>
+      </c>
+      <c r="B229" t="s">
+        <v>222</v>
+      </c>
+      <c r="C229" s="15">
+        <v>45922</v>
+      </c>
+      <c r="D229" s="1">
+        <v>2</v>
+      </c>
+      <c r="E229" s="1">
+        <v>1440</v>
+      </c>
+      <c r="F229" s="1">
+        <v>8300</v>
+      </c>
+      <c r="G229" s="1">
+        <v>7908</v>
+      </c>
+      <c r="I229" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q229" s="11">
+        <f t="shared" si="355"/>
+        <v>0</v>
+      </c>
+      <c r="S229" s="1">
+        <f t="shared" si="342"/>
+        <v>60</v>
+      </c>
+      <c r="T229" s="1">
+        <f t="shared" si="343"/>
+        <v>1380</v>
+      </c>
+      <c r="U229" s="1">
+        <f t="shared" si="344"/>
+        <v>0</v>
+      </c>
+      <c r="V229" s="11">
+        <f t="shared" si="345"/>
+        <v>1371.990361445783</v>
+      </c>
+      <c r="W229" s="11">
+        <f t="shared" si="346"/>
+        <v>0</v>
+      </c>
+      <c r="X229" s="11">
+        <f t="shared" si="347"/>
+        <v>1371.990361445783</v>
+      </c>
+      <c r="Y229" s="4">
+        <f t="shared" si="348"/>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="Z229" s="13">
+        <f t="shared" si="349"/>
+        <v>0.95277108433734936</v>
+      </c>
+      <c r="AA229" s="13">
+        <f t="shared" si="350"/>
+        <v>1</v>
+      </c>
+      <c r="AB229" s="6">
+        <f t="shared" si="351"/>
+        <v>0.91307228915662653</v>
+      </c>
+      <c r="AC229" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="AE229" s="1">
+        <f t="shared" si="356"/>
+        <v>8300</v>
+      </c>
+      <c r="AF229" s="1">
+        <f t="shared" si="356"/>
+        <v>7908</v>
+      </c>
+      <c r="AG229" s="9">
+        <f t="shared" si="357"/>
+        <v>0.95277108433734936</v>
+      </c>
+    </row>
+    <row r="230" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>192</v>
+      </c>
+      <c r="B230" t="s">
+        <v>222</v>
+      </c>
+      <c r="C230" s="15">
+        <v>45923</v>
+      </c>
+      <c r="D230" s="1">
+        <v>1</v>
+      </c>
+      <c r="E230" s="1">
+        <v>1440</v>
+      </c>
+      <c r="F230" s="1">
+        <v>29400</v>
+      </c>
+      <c r="G230" s="1">
+        <v>26368</v>
+      </c>
+      <c r="H230" s="1">
+        <v>650</v>
+      </c>
+      <c r="Q230" s="11">
+        <f t="shared" si="355"/>
+        <v>81.25</v>
+      </c>
+      <c r="S230" s="1">
+        <f t="shared" si="342"/>
+        <v>0</v>
+      </c>
+      <c r="T230" s="1">
+        <f t="shared" si="343"/>
+        <v>1440</v>
+      </c>
+      <c r="U230" s="1">
+        <f t="shared" si="344"/>
+        <v>0</v>
+      </c>
+      <c r="V230" s="11">
+        <f t="shared" si="345"/>
+        <v>1291.4938775510204</v>
+      </c>
+      <c r="W230" s="11">
+        <f t="shared" si="346"/>
+        <v>81.25</v>
+      </c>
+      <c r="X230" s="11">
+        <f t="shared" si="347"/>
+        <v>1210.2438775510204</v>
+      </c>
+      <c r="Y230" s="4">
+        <f t="shared" si="348"/>
+        <v>1</v>
+      </c>
+      <c r="Z230" s="13">
+        <f t="shared" si="349"/>
+        <v>0.84044713718820863</v>
+      </c>
+      <c r="AA230" s="13">
+        <f t="shared" si="350"/>
+        <v>0.9370883583636731</v>
+      </c>
+      <c r="AB230" s="6">
+        <f t="shared" si="351"/>
+        <v>0.7875732280791472</v>
+      </c>
+      <c r="AC230" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="AE230" s="1">
+        <f t="shared" si="356"/>
+        <v>29400</v>
+      </c>
+      <c r="AF230" s="1">
+        <f t="shared" si="356"/>
+        <v>26368</v>
+      </c>
+      <c r="AG230" s="9">
+        <f t="shared" si="357"/>
+        <v>0.89687074829931968</v>
+      </c>
+    </row>
+    <row r="231" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>192</v>
+      </c>
+      <c r="B231" t="s">
+        <v>222</v>
+      </c>
+      <c r="C231" s="15">
+        <v>45923</v>
+      </c>
+      <c r="D231" t="s">
+        <v>40</v>
+      </c>
+      <c r="E231" s="1">
+        <v>1440</v>
+      </c>
+      <c r="F231" s="1">
+        <v>29400</v>
+      </c>
+      <c r="G231" s="1">
+        <v>26368</v>
+      </c>
+      <c r="H231" s="1">
+        <v>1000</v>
+      </c>
+      <c r="Q231" s="11">
+        <f t="shared" si="355"/>
+        <v>125</v>
+      </c>
+      <c r="S231" s="1">
+        <f t="shared" ref="S231:S238" si="358">SUM(I231:N231)+R231</f>
+        <v>0</v>
+      </c>
+      <c r="T231" s="1">
+        <f t="shared" ref="T231:T238" si="359">E231-S231</f>
+        <v>1440</v>
+      </c>
+      <c r="U231" s="1">
+        <f t="shared" ref="U231:U238" si="360">O231+P231</f>
+        <v>0</v>
+      </c>
+      <c r="V231" s="11">
+        <f t="shared" ref="V231:V238" si="361">(G231*E231)/F231</f>
+        <v>1291.4938775510204</v>
+      </c>
+      <c r="W231" s="11">
+        <f t="shared" ref="W231:W238" si="362">Q231</f>
+        <v>125</v>
+      </c>
+      <c r="X231" s="11">
+        <f t="shared" ref="X231:X238" si="363">V231-W231</f>
+        <v>1166.4938775510204</v>
+      </c>
+      <c r="Y231" s="4">
+        <f t="shared" ref="Y231:Y238" si="364">T231/E231</f>
+        <v>1</v>
+      </c>
+      <c r="Z231" s="13">
+        <f t="shared" ref="Z231:Z238" si="365">X231/E231</f>
+        <v>0.81006519274376421</v>
+      </c>
+      <c r="AA231" s="13">
+        <f t="shared" ref="AA231:AA238" si="366">X231/V231</f>
+        <v>0.90321285902103565</v>
+      </c>
+      <c r="AB231" s="6">
+        <f t="shared" ref="AB231:AB238" si="367">Y231*Z231*AA231</f>
+        <v>0.73166129873152153</v>
+      </c>
+      <c r="AC231" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="AE231" s="1">
+        <f t="shared" si="356"/>
+        <v>29400</v>
+      </c>
+      <c r="AF231" s="1">
+        <f t="shared" si="356"/>
+        <v>26368</v>
+      </c>
+      <c r="AG231" s="9">
+        <f t="shared" si="357"/>
+        <v>0.89687074829931968</v>
+      </c>
+    </row>
+    <row r="232" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>192</v>
+      </c>
+      <c r="B232" t="s">
+        <v>222</v>
+      </c>
+      <c r="C232" s="15">
+        <v>45923</v>
+      </c>
+      <c r="D232" s="1">
+        <v>2</v>
+      </c>
+      <c r="E232" s="1">
+        <v>1440</v>
+      </c>
+      <c r="F232" s="1">
+        <v>6780</v>
+      </c>
+      <c r="G232" s="1">
+        <v>6484</v>
+      </c>
+      <c r="I232" s="1">
+        <v>60</v>
+      </c>
+      <c r="Q232" s="11">
+        <f t="shared" si="355"/>
+        <v>0</v>
+      </c>
+      <c r="S232" s="1">
+        <f t="shared" si="358"/>
+        <v>60</v>
+      </c>
+      <c r="T232" s="1">
+        <f t="shared" si="359"/>
+        <v>1380</v>
+      </c>
+      <c r="U232" s="1">
+        <f t="shared" si="360"/>
+        <v>0</v>
+      </c>
+      <c r="V232" s="11">
+        <f t="shared" si="361"/>
+        <v>1377.1327433628319</v>
+      </c>
+      <c r="W232" s="11">
+        <f t="shared" si="362"/>
+        <v>0</v>
+      </c>
+      <c r="X232" s="11">
+        <f t="shared" si="363"/>
+        <v>1377.1327433628319</v>
+      </c>
+      <c r="Y232" s="4">
+        <f t="shared" si="364"/>
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="Z232" s="13">
+        <f t="shared" si="365"/>
+        <v>0.95634218289085549</v>
+      </c>
+      <c r="AA232" s="13">
+        <f t="shared" si="366"/>
+        <v>1</v>
+      </c>
+      <c r="AB232" s="6">
+        <f t="shared" si="367"/>
+        <v>0.91649459193706984</v>
+      </c>
+      <c r="AC232" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="AE232" s="1">
+        <f t="shared" si="356"/>
+        <v>6780</v>
+      </c>
+      <c r="AF232" s="1">
+        <f t="shared" si="356"/>
+        <v>6484</v>
+      </c>
+      <c r="AG232" s="9">
+        <f t="shared" si="357"/>
+        <v>0.95634218289085549</v>
+      </c>
+    </row>
+    <row r="233" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>192</v>
+      </c>
+      <c r="B233" t="s">
+        <v>222</v>
+      </c>
+      <c r="C233" s="15">
+        <v>45924</v>
+      </c>
+      <c r="D233" s="1">
+        <v>1</v>
+      </c>
+      <c r="E233" s="1">
+        <v>1440</v>
+      </c>
+      <c r="F233" s="1">
+        <v>29400</v>
+      </c>
+      <c r="G233" s="1">
+        <v>26752</v>
+      </c>
+      <c r="Q233" s="11">
+        <f t="shared" si="355"/>
+        <v>0</v>
+      </c>
+      <c r="S233" s="1">
+        <f t="shared" si="358"/>
+        <v>0</v>
+      </c>
+      <c r="T233" s="1">
+        <f t="shared" si="359"/>
+        <v>1440</v>
+      </c>
+      <c r="U233" s="1">
+        <f t="shared" si="360"/>
+        <v>0</v>
+      </c>
+      <c r="V233" s="11">
+        <f t="shared" si="361"/>
+        <v>1310.3020408163266</v>
+      </c>
+      <c r="W233" s="11">
+        <f t="shared" si="362"/>
+        <v>0</v>
+      </c>
+      <c r="X233" s="11">
+        <f t="shared" si="363"/>
+        <v>1310.3020408163266</v>
+      </c>
+      <c r="Y233" s="4">
+        <f t="shared" si="364"/>
+        <v>1</v>
+      </c>
+      <c r="Z233" s="13">
+        <f t="shared" si="365"/>
+        <v>0.90993197278911564</v>
+      </c>
+      <c r="AA233" s="13">
+        <f t="shared" si="366"/>
+        <v>1</v>
+      </c>
+      <c r="AB233" s="6">
+        <f t="shared" si="367"/>
+        <v>0.90993197278911564</v>
+      </c>
+      <c r="AC233" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="AE233" s="1">
+        <f t="shared" si="356"/>
+        <v>29400</v>
+      </c>
+      <c r="AF233" s="1">
+        <f t="shared" si="356"/>
+        <v>26752</v>
+      </c>
+      <c r="AG233" s="9">
+        <f t="shared" si="357"/>
+        <v>0.90993197278911564</v>
+      </c>
+    </row>
+    <row r="234" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>192</v>
+      </c>
+      <c r="B234" t="s">
+        <v>222</v>
+      </c>
+      <c r="C234" s="15">
+        <v>45924</v>
+      </c>
+      <c r="D234" t="s">
+        <v>40</v>
+      </c>
+      <c r="E234" s="1">
+        <v>1440</v>
+      </c>
+      <c r="F234" s="1">
+        <v>29400</v>
+      </c>
+      <c r="G234" s="1">
+        <v>26752</v>
+      </c>
+      <c r="Q234" s="11">
+        <f t="shared" si="355"/>
+        <v>0</v>
+      </c>
+      <c r="S234" s="1">
+        <f t="shared" si="358"/>
+        <v>0</v>
+      </c>
+      <c r="T234" s="1">
+        <f t="shared" si="359"/>
+        <v>1440</v>
+      </c>
+      <c r="U234" s="1">
+        <f t="shared" si="360"/>
+        <v>0</v>
+      </c>
+      <c r="V234" s="11">
+        <f t="shared" si="361"/>
+        <v>1310.3020408163266</v>
+      </c>
+      <c r="W234" s="11">
+        <f t="shared" si="362"/>
+        <v>0</v>
+      </c>
+      <c r="X234" s="11">
+        <f t="shared" si="363"/>
+        <v>1310.3020408163266</v>
+      </c>
+      <c r="Y234" s="4">
+        <f t="shared" si="364"/>
+        <v>1</v>
+      </c>
+      <c r="Z234" s="13">
+        <f t="shared" si="365"/>
+        <v>0.90993197278911564</v>
+      </c>
+      <c r="AA234" s="13">
+        <f t="shared" si="366"/>
+        <v>1</v>
+      </c>
+      <c r="AB234" s="6">
+        <f t="shared" si="367"/>
+        <v>0.90993197278911564</v>
+      </c>
+      <c r="AC234" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="AE234" s="1">
+        <f t="shared" si="356"/>
+        <v>29400</v>
+      </c>
+      <c r="AF234" s="1">
+        <f t="shared" si="356"/>
+        <v>26752</v>
+      </c>
+      <c r="AG234" s="9">
+        <f t="shared" si="357"/>
+        <v>0.90993197278911564</v>
+      </c>
+    </row>
+    <row r="235" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>192</v>
+      </c>
+      <c r="B235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C235" s="15">
+        <v>45924</v>
+      </c>
+      <c r="D235" s="1">
+        <v>2</v>
+      </c>
+      <c r="E235" s="1">
+        <v>1440</v>
+      </c>
+      <c r="F235" s="1">
+        <v>11120</v>
+      </c>
+      <c r="G235" s="1">
+        <v>10650</v>
+      </c>
+      <c r="Q235" s="11">
+        <f t="shared" si="355"/>
+        <v>0</v>
+      </c>
+      <c r="S235" s="1">
+        <f t="shared" si="358"/>
+        <v>0</v>
+      </c>
+      <c r="T235" s="1">
+        <f t="shared" si="359"/>
+        <v>1440</v>
+      </c>
+      <c r="U235" s="1">
+        <f t="shared" si="360"/>
+        <v>0</v>
+      </c>
+      <c r="V235" s="11">
+        <f t="shared" si="361"/>
+        <v>1379.1366906474821</v>
+      </c>
+      <c r="W235" s="11">
+        <f t="shared" si="362"/>
+        <v>0</v>
+      </c>
+      <c r="X235" s="11">
+        <f t="shared" si="363"/>
+        <v>1379.1366906474821</v>
+      </c>
+      <c r="Y235" s="4">
+        <f t="shared" si="364"/>
+        <v>1</v>
+      </c>
+      <c r="Z235" s="13">
+        <f t="shared" si="365"/>
+        <v>0.95773381294964033</v>
+      </c>
+      <c r="AA235" s="13">
+        <f t="shared" si="366"/>
+        <v>1</v>
+      </c>
+      <c r="AB235" s="6">
+        <f t="shared" si="367"/>
+        <v>0.95773381294964033</v>
+      </c>
+      <c r="AC235" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="AE235" s="1">
+        <f t="shared" si="356"/>
+        <v>11120</v>
+      </c>
+      <c r="AF235" s="1">
+        <f t="shared" si="356"/>
+        <v>10650</v>
+      </c>
+      <c r="AG235" s="9">
+        <f t="shared" si="357"/>
+        <v>0.95773381294964033</v>
+      </c>
+    </row>
+    <row r="236" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>192</v>
+      </c>
+      <c r="B236" t="s">
+        <v>222</v>
+      </c>
+      <c r="C236" s="15">
+        <v>45925</v>
+      </c>
+      <c r="D236" s="1">
+        <v>1</v>
+      </c>
+      <c r="E236" s="1">
+        <v>1440</v>
+      </c>
+      <c r="F236" s="1">
+        <v>29400</v>
+      </c>
+      <c r="G236" s="1">
+        <v>4224</v>
+      </c>
+      <c r="I236" s="1">
+        <v>1138</v>
+      </c>
+      <c r="Q236" s="11">
+        <f t="shared" si="355"/>
+        <v>0</v>
+      </c>
+      <c r="S236" s="1">
+        <f t="shared" si="358"/>
+        <v>1138</v>
+      </c>
+      <c r="T236" s="1">
+        <f t="shared" si="359"/>
+        <v>302</v>
+      </c>
+      <c r="U236" s="1">
+        <f t="shared" si="360"/>
+        <v>0</v>
+      </c>
+      <c r="V236" s="11">
+        <f t="shared" si="361"/>
+        <v>206.88979591836735</v>
+      </c>
+      <c r="W236" s="11">
+        <f t="shared" si="362"/>
+        <v>0</v>
+      </c>
+      <c r="X236" s="11">
+        <f t="shared" si="363"/>
+        <v>206.88979591836735</v>
+      </c>
+      <c r="Y236" s="4">
+        <f t="shared" si="364"/>
+        <v>0.20972222222222223</v>
+      </c>
+      <c r="Z236" s="13">
+        <f t="shared" si="365"/>
+        <v>0.1436734693877551</v>
+      </c>
+      <c r="AA236" s="13">
+        <f t="shared" si="366"/>
+        <v>1</v>
+      </c>
+      <c r="AB236" s="6">
+        <f t="shared" si="367"/>
+        <v>3.013151927437642E-2</v>
+      </c>
+      <c r="AC236" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="AE236" s="1">
+        <f t="shared" si="356"/>
+        <v>29400</v>
+      </c>
+      <c r="AF236" s="1">
+        <f t="shared" si="356"/>
+        <v>4224</v>
+      </c>
+      <c r="AG236" s="9">
+        <f t="shared" si="357"/>
+        <v>0.1436734693877551</v>
+      </c>
+    </row>
+    <row r="237" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>192</v>
+      </c>
+      <c r="B237" t="s">
+        <v>222</v>
+      </c>
+      <c r="C237" s="15">
+        <v>45925</v>
+      </c>
+      <c r="D237" t="s">
+        <v>40</v>
+      </c>
+      <c r="E237" s="1">
+        <v>1440</v>
+      </c>
+      <c r="F237" s="1">
+        <v>29400</v>
+      </c>
+      <c r="G237" s="1">
+        <v>4224</v>
+      </c>
+      <c r="I237" s="1">
+        <v>1138</v>
+      </c>
+      <c r="Q237" s="11">
+        <f t="shared" si="355"/>
+        <v>0</v>
+      </c>
+      <c r="S237" s="1">
+        <f t="shared" si="358"/>
+        <v>1138</v>
+      </c>
+      <c r="T237" s="1">
+        <f t="shared" si="359"/>
+        <v>302</v>
+      </c>
+      <c r="U237" s="1">
+        <f t="shared" si="360"/>
+        <v>0</v>
+      </c>
+      <c r="V237" s="11">
+        <f t="shared" si="361"/>
+        <v>206.88979591836735</v>
+      </c>
+      <c r="W237" s="11">
+        <f t="shared" si="362"/>
+        <v>0</v>
+      </c>
+      <c r="X237" s="11">
+        <f t="shared" si="363"/>
+        <v>206.88979591836735</v>
+      </c>
+      <c r="Y237" s="4">
+        <f t="shared" si="364"/>
+        <v>0.20972222222222223</v>
+      </c>
+      <c r="Z237" s="13">
+        <f t="shared" si="365"/>
+        <v>0.1436734693877551</v>
+      </c>
+      <c r="AA237" s="13">
+        <f t="shared" si="366"/>
+        <v>1</v>
+      </c>
+      <c r="AB237" s="6">
+        <f t="shared" si="367"/>
+        <v>3.013151927437642E-2</v>
+      </c>
+      <c r="AC237" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="AE237" s="1">
+        <f t="shared" si="356"/>
+        <v>29400</v>
+      </c>
+      <c r="AF237" s="1">
+        <f t="shared" si="356"/>
+        <v>4224</v>
+      </c>
+      <c r="AG237" s="9">
+        <f t="shared" si="357"/>
+        <v>0.1436734693877551</v>
+      </c>
+    </row>
+    <row r="238" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>192</v>
+      </c>
+      <c r="B238" t="s">
+        <v>222</v>
+      </c>
+      <c r="C238" s="15">
+        <v>45925</v>
+      </c>
+      <c r="D238" s="1">
+        <v>2</v>
+      </c>
+      <c r="E238" s="1">
+        <v>1440</v>
+      </c>
+      <c r="F238" s="1">
+        <v>9400</v>
+      </c>
+      <c r="G238" s="1">
+        <v>2500</v>
+      </c>
+      <c r="I238" s="1">
+        <v>1138</v>
+      </c>
+      <c r="Q238" s="11">
+        <f t="shared" si="355"/>
+        <v>0</v>
+      </c>
+      <c r="S238" s="1">
+        <f t="shared" si="358"/>
+        <v>1138</v>
+      </c>
+      <c r="T238" s="1">
+        <f t="shared" si="359"/>
+        <v>302</v>
+      </c>
+      <c r="U238" s="1">
+        <f t="shared" si="360"/>
+        <v>0</v>
+      </c>
+      <c r="V238" s="11">
+        <f t="shared" si="361"/>
+        <v>382.97872340425533</v>
+      </c>
+      <c r="W238" s="11">
+        <f t="shared" si="362"/>
+        <v>0</v>
+      </c>
+      <c r="X238" s="11">
+        <f t="shared" si="363"/>
+        <v>382.97872340425533</v>
+      </c>
+      <c r="Y238" s="4">
+        <f t="shared" si="364"/>
+        <v>0.20972222222222223</v>
+      </c>
+      <c r="Z238" s="13">
+        <f t="shared" si="365"/>
+        <v>0.26595744680851063</v>
+      </c>
+      <c r="AA238" s="13">
+        <f t="shared" si="366"/>
+        <v>1</v>
+      </c>
+      <c r="AB238" s="6">
+        <f t="shared" si="367"/>
+        <v>5.5777186761229315E-2</v>
+      </c>
+      <c r="AC238" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="AE238" s="1">
+        <f t="shared" si="356"/>
+        <v>9400</v>
+      </c>
+      <c r="AF238" s="1">
+        <f t="shared" si="356"/>
+        <v>2500</v>
+      </c>
+      <c r="AG238" s="9">
+        <f t="shared" si="357"/>
+        <v>0.26595744680851063</v>
+      </c>
+    </row>
+    <row r="240" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="Y240" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -20352,10 +21390,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3456C7-F07F-43EF-A2A4-D8D6BF3D889C}">
-  <dimension ref="A1:U229"/>
+  <dimension ref="A1:U242"/>
   <sheetViews>
-    <sheetView topLeftCell="F210" workbookViewId="0">
-      <selection activeCell="M218" sqref="M218"/>
+    <sheetView topLeftCell="D223" workbookViewId="0">
+      <selection activeCell="K237" sqref="K237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31070,7 +32108,7 @@
       <c r="C215" s="14">
         <v>45917</v>
       </c>
-      <c r="D215" s="51" t="s">
+      <c r="D215" s="41" t="s">
         <v>193</v>
       </c>
       <c r="E215">
@@ -31117,7 +32155,7 @@
       <c r="C216" s="14">
         <v>45917</v>
       </c>
-      <c r="D216" s="51" t="s">
+      <c r="D216" s="41" t="s">
         <v>193</v>
       </c>
       <c r="E216">
@@ -31230,7 +32268,7 @@
         <v>0.6875</v>
       </c>
       <c r="J218" s="1">
-        <f t="shared" ref="J218:J229" si="4">(I218-H218)*1440</f>
+        <f t="shared" ref="J218:J239" si="4">(I218-H218)*1440</f>
         <v>59.999999999999943</v>
       </c>
       <c r="L218" s="28" t="s">
@@ -31262,7 +32300,7 @@
       <c r="C219" s="14">
         <v>45919</v>
       </c>
-      <c r="D219" s="51" t="s">
+      <c r="D219" s="41" t="s">
         <v>193</v>
       </c>
       <c r="E219">
@@ -31310,7 +32348,7 @@
       <c r="C220" s="14">
         <v>45919</v>
       </c>
-      <c r="D220" s="51" t="s">
+      <c r="D220" s="41" t="s">
         <v>193</v>
       </c>
       <c r="E220">
@@ -31358,7 +32396,7 @@
       <c r="C221" s="14">
         <v>45919</v>
       </c>
-      <c r="D221" s="51" t="s">
+      <c r="D221" s="41" t="s">
         <v>169</v>
       </c>
       <c r="E221">
@@ -31457,7 +32495,7 @@
       <c r="C223" s="14">
         <v>45919</v>
       </c>
-      <c r="D223" s="51" t="s">
+      <c r="D223" s="41" t="s">
         <v>193</v>
       </c>
       <c r="E223">
@@ -31505,7 +32543,7 @@
       <c r="C224" s="14">
         <v>45919</v>
       </c>
-      <c r="D224" s="51" t="s">
+      <c r="D224" s="41" t="s">
         <v>193</v>
       </c>
       <c r="E224">
@@ -31652,7 +32690,7 @@
       <c r="C227" s="14">
         <v>45920</v>
       </c>
-      <c r="D227" s="51" t="s">
+      <c r="D227" s="41" t="s">
         <v>193</v>
       </c>
       <c r="E227">
@@ -31700,7 +32738,7 @@
       <c r="C228" s="14">
         <v>45920</v>
       </c>
-      <c r="D228" s="51" t="s">
+      <c r="D228" s="41" t="s">
         <v>193</v>
       </c>
       <c r="E228">
@@ -31784,6 +32822,639 @@
       </c>
       <c r="P229" s="1" t="s">
         <v>76</v>
+      </c>
+    </row>
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A230" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B230" t="s">
+        <v>222</v>
+      </c>
+      <c r="C230" s="14">
+        <v>45922</v>
+      </c>
+      <c r="D230" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="E230">
+        <v>3</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>2</v>
+      </c>
+      <c r="H230" s="34">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="I230" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="J230" s="1">
+        <f t="shared" si="4"/>
+        <v>60.000000000000028</v>
+      </c>
+      <c r="L230" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="M230" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="N230" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O230" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P230" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="S230" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A231" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B231" t="s">
+        <v>222</v>
+      </c>
+      <c r="C231" s="14">
+        <v>45923</v>
+      </c>
+      <c r="D231" t="s">
+        <v>224</v>
+      </c>
+      <c r="E231">
+        <v>3</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>2</v>
+      </c>
+      <c r="H231" s="34">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="I231" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="J231" s="1">
+        <f t="shared" si="4"/>
+        <v>60.000000000000028</v>
+      </c>
+      <c r="L231" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="M231" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="N231" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O231" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P231" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="S231" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="232" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A232" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B232" t="s">
+        <v>222</v>
+      </c>
+      <c r="C232" s="14">
+        <v>45924</v>
+      </c>
+      <c r="D232" t="s">
+        <v>225</v>
+      </c>
+      <c r="E232">
+        <v>3</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>2</v>
+      </c>
+      <c r="H232" s="34">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="I232" s="34">
+        <v>0.5</v>
+      </c>
+      <c r="J232" s="1">
+        <f t="shared" si="4"/>
+        <v>60.000000000000028</v>
+      </c>
+      <c r="L232" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="M232" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="N232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O232" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P232" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="S232" s="30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="233" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A233" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B233" t="s">
+        <v>222</v>
+      </c>
+      <c r="C233" s="14">
+        <v>45925</v>
+      </c>
+      <c r="D233" s="30" t="s">
+        <v>218</v>
+      </c>
+      <c r="E233">
+        <v>3</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>2</v>
+      </c>
+      <c r="H233" s="34">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I233" s="34">
+        <v>0.375</v>
+      </c>
+      <c r="J233" s="1">
+        <f t="shared" si="4"/>
+        <v>60.000000000000028</v>
+      </c>
+      <c r="L233" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="M233" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="N233" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O233" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="P233" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="S233" s="30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A234" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B234" t="s">
+        <v>222</v>
+      </c>
+      <c r="C234" s="14">
+        <v>45925</v>
+      </c>
+      <c r="D234" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="E234">
+        <v>3</v>
+      </c>
+      <c r="F234">
+        <v>1</v>
+      </c>
+      <c r="G234">
+        <v>1</v>
+      </c>
+      <c r="H234" s="34">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="I234" s="34">
+        <v>0.625</v>
+      </c>
+      <c r="J234" s="1">
+        <f t="shared" si="4"/>
+        <v>330</v>
+      </c>
+      <c r="L234" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="M234" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="N234" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="O234" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="P234" s="28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A235" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B235" t="s">
+        <v>222</v>
+      </c>
+      <c r="C235" s="14">
+        <v>45925</v>
+      </c>
+      <c r="D235" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="E235">
+        <v>3</v>
+      </c>
+      <c r="F235">
+        <v>1</v>
+      </c>
+      <c r="G235" t="s">
+        <v>40</v>
+      </c>
+      <c r="H235" s="34">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="I235" s="34">
+        <v>0.625</v>
+      </c>
+      <c r="J235" s="1">
+        <f t="shared" si="4"/>
+        <v>330</v>
+      </c>
+      <c r="L235" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="M235" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="N235" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="O235" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="P235" s="28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="236" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A236" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B236" t="s">
+        <v>222</v>
+      </c>
+      <c r="C236" s="14">
+        <v>45925</v>
+      </c>
+      <c r="D236" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="E236">
+        <v>3</v>
+      </c>
+      <c r="F236">
+        <v>1</v>
+      </c>
+      <c r="G236">
+        <v>2</v>
+      </c>
+      <c r="H236" s="34">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="I236" s="34">
+        <v>0.625</v>
+      </c>
+      <c r="J236" s="1">
+        <f t="shared" si="4"/>
+        <v>330</v>
+      </c>
+      <c r="L236" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="M236" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="N236" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="O236" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="P236" s="28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A237" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B237" t="s">
+        <v>222</v>
+      </c>
+      <c r="C237" s="14">
+        <v>45925</v>
+      </c>
+      <c r="D237" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>2</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+      <c r="H237" s="34">
+        <v>0.625</v>
+      </c>
+      <c r="I237" s="34">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="J237" s="1">
+        <f t="shared" si="4"/>
+        <v>480.00000000000006</v>
+      </c>
+      <c r="L237" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="M237" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="N237" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="O237" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="P237" s="28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A238" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B238" t="s">
+        <v>222</v>
+      </c>
+      <c r="C238" s="14">
+        <v>45925</v>
+      </c>
+      <c r="D238" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>2</v>
+      </c>
+      <c r="G238" t="s">
+        <v>40</v>
+      </c>
+      <c r="H238" s="34">
+        <v>0.625</v>
+      </c>
+      <c r="I238" s="34">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="J238" s="1">
+        <f t="shared" si="4"/>
+        <v>480.00000000000006</v>
+      </c>
+      <c r="L238" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="M238" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="N238" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="O238" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="P238" s="28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A239" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B239" t="s">
+        <v>222</v>
+      </c>
+      <c r="C239" s="14">
+        <v>45925</v>
+      </c>
+      <c r="D239" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>2</v>
+      </c>
+      <c r="G239">
+        <v>2</v>
+      </c>
+      <c r="H239" s="34">
+        <v>0.625</v>
+      </c>
+      <c r="I239" s="34">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="J239" s="1">
+        <f t="shared" si="4"/>
+        <v>480.00000000000006</v>
+      </c>
+      <c r="L239" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="M239" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="N239" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="O239" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="P239" s="28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A240" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B240" t="s">
+        <v>222</v>
+      </c>
+      <c r="C240" s="14">
+        <v>45925</v>
+      </c>
+      <c r="D240" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="E240">
+        <v>2</v>
+      </c>
+      <c r="F240">
+        <v>3</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+      <c r="H240" s="34">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="I240" s="34">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="J240" s="1">
+        <v>330</v>
+      </c>
+      <c r="L240" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="M240" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="N240" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="O240" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="P240" s="28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A241" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B241" t="s">
+        <v>222</v>
+      </c>
+      <c r="C241" s="14">
+        <v>45925</v>
+      </c>
+      <c r="D241" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="E241">
+        <v>2</v>
+      </c>
+      <c r="F241">
+        <v>3</v>
+      </c>
+      <c r="G241" t="s">
+        <v>40</v>
+      </c>
+      <c r="H241" s="34">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="I241" s="34">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="J241" s="1">
+        <v>330</v>
+      </c>
+      <c r="L241" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="M241" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="N241" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="O241" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="P241" s="28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A242" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B242" t="s">
+        <v>222</v>
+      </c>
+      <c r="C242" s="14">
+        <v>45925</v>
+      </c>
+      <c r="D242" s="30" t="s">
+        <v>186</v>
+      </c>
+      <c r="E242">
+        <v>2</v>
+      </c>
+      <c r="F242">
+        <v>3</v>
+      </c>
+      <c r="G242">
+        <v>2</v>
+      </c>
+      <c r="H242" s="34">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="I242" s="34">
+        <v>0.22916666666666666</v>
+      </c>
+      <c r="J242" s="1">
+        <v>330</v>
+      </c>
+      <c r="L242" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="M242" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="N242" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="O242" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="P242" s="28" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
